--- a/Clase_11/Base_VAR.xlsx
+++ b/Clase_11/Base_VAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2024-I/Series-Tiempo-2023/Clase_11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D8B75-EDB8-5748-9026-E04116651819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66BB274-1608-A149-BF61-971785AC9ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32000" yWindow="1500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805590D1-F097-D543-8963-E1F78B73D744}">
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -432,7 +432,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="E2">
-        <v>77.930000000000007</v>
+        <v>71.985200000000006</v>
       </c>
       <c r="F2">
         <v>90.712500000000006</v>
@@ -452,7 +452,7 @@
         <v>15.81</v>
       </c>
       <c r="E3">
-        <v>77.3673</v>
+        <v>72.253399999999999</v>
       </c>
       <c r="F3">
         <v>91.493399999999994</v>
@@ -472,7 +472,7 @@
         <v>13.66</v>
       </c>
       <c r="E4">
-        <v>80.358000000000004</v>
+        <v>74.6511</v>
       </c>
       <c r="F4">
         <v>93.103300000000004</v>
@@ -492,7 +492,7 @@
         <v>12.93</v>
       </c>
       <c r="E5">
-        <v>77.007599999999996</v>
+        <v>71.374700000000004</v>
       </c>
       <c r="F5">
         <v>91.842200000000005</v>
@@ -512,7 +512,7 @@
         <v>14.18</v>
       </c>
       <c r="E6">
-        <v>82.343299999999999</v>
+        <v>75.420699999999997</v>
       </c>
       <c r="F6">
         <v>92.162899999999993</v>
@@ -532,7 +532,7 @@
         <v>15.65</v>
       </c>
       <c r="E7">
-        <v>81.541499999999999</v>
+        <v>74.949700000000007</v>
       </c>
       <c r="F7">
         <v>95.109399999999994</v>
@@ -552,7 +552,7 @@
         <v>13.73</v>
       </c>
       <c r="E8">
-        <v>79.6297</v>
+        <v>74.032700000000006</v>
       </c>
       <c r="F8">
         <v>90.621399999999994</v>
@@ -572,7 +572,7 @@
         <v>15.23</v>
       </c>
       <c r="E9">
-        <v>81.190700000000007</v>
+        <v>74.842600000000004</v>
       </c>
       <c r="F9">
         <v>94.108999999999995</v>
@@ -592,7 +592,7 @@
         <v>15.06</v>
       </c>
       <c r="E10">
-        <v>80.164900000000003</v>
+        <v>75.7166</v>
       </c>
       <c r="F10">
         <v>94.584800000000001</v>
@@ -612,7 +612,7 @@
         <v>15.88</v>
       </c>
       <c r="E11">
-        <v>80.809600000000003</v>
+        <v>74.414100000000005</v>
       </c>
       <c r="F11">
         <v>93.769099999999995</v>
@@ -632,7 +632,7 @@
         <v>17.559999999999999</v>
       </c>
       <c r="E12">
-        <v>80.916200000000003</v>
+        <v>74.316599999999994</v>
       </c>
       <c r="F12">
         <v>92.679900000000004</v>
@@ -652,7 +652,7 @@
         <v>17.05</v>
       </c>
       <c r="E13">
-        <v>79.4983</v>
+        <v>73.0792</v>
       </c>
       <c r="F13">
         <v>92.172499999999999</v>
@@ -672,7 +672,7 @@
         <v>17.89</v>
       </c>
       <c r="E14">
-        <v>79.423500000000004</v>
+        <v>73.603800000000007</v>
       </c>
       <c r="F14">
         <v>91.038899999999998</v>
@@ -692,7 +692,7 @@
         <v>17.34</v>
       </c>
       <c r="E15">
-        <v>76.419300000000007</v>
+        <v>71.051199999999994</v>
       </c>
       <c r="F15">
         <v>91.116900000000001</v>
@@ -712,7 +712,7 @@
         <v>15.8</v>
       </c>
       <c r="E16">
-        <v>80.767899999999997</v>
+        <v>74.403800000000004</v>
       </c>
       <c r="F16">
         <v>92.046000000000006</v>
@@ -732,7 +732,7 @@
         <v>14.96</v>
       </c>
       <c r="E17">
-        <v>77.531199999999998</v>
+        <v>71.923000000000002</v>
       </c>
       <c r="F17">
         <v>88.979399999999998</v>
@@ -752,7 +752,7 @@
         <v>11.95</v>
       </c>
       <c r="E18">
-        <v>81.784099999999995</v>
+        <v>74.855400000000003</v>
       </c>
       <c r="F18">
         <v>89.726900000000001</v>
@@ -772,7 +772,7 @@
         <v>9.43</v>
       </c>
       <c r="E19">
-        <v>80.606999999999999</v>
+        <v>73.787999999999997</v>
       </c>
       <c r="F19">
         <v>91.850700000000003</v>
@@ -792,7 +792,7 @@
         <v>9.39</v>
       </c>
       <c r="E20">
-        <v>79.325299999999999</v>
+        <v>72.888800000000003</v>
       </c>
       <c r="F20">
         <v>87.543999999999997</v>
@@ -812,7 +812,7 @@
         <v>7.51</v>
       </c>
       <c r="E21">
-        <v>80.587000000000003</v>
+        <v>74.038700000000006</v>
       </c>
       <c r="F21">
         <v>90.990099999999998</v>
@@ -832,7 +832,7 @@
         <v>9.32</v>
       </c>
       <c r="E22">
-        <v>78.269599999999997</v>
+        <v>73.816599999999994</v>
       </c>
       <c r="F22">
         <v>90.203299999999999</v>
@@ -852,7 +852,7 @@
         <v>8.36</v>
       </c>
       <c r="E23">
-        <v>79.973600000000005</v>
+        <v>73.412899999999993</v>
       </c>
       <c r="F23">
         <v>89.156000000000006</v>
@@ -872,7 +872,7 @@
         <v>7.43</v>
       </c>
       <c r="E24">
-        <v>80.093900000000005</v>
+        <v>73.048100000000005</v>
       </c>
       <c r="F24">
         <v>87.610500000000002</v>
@@ -892,7 +892,7 @@
         <v>6.29</v>
       </c>
       <c r="E25">
-        <v>79.092500000000001</v>
+        <v>72.288300000000007</v>
       </c>
       <c r="F25">
         <v>87.133099999999999</v>
@@ -912,7 +912,7 @@
         <v>6.97</v>
       </c>
       <c r="E26">
-        <v>77.386300000000006</v>
+        <v>71.112899999999996</v>
       </c>
       <c r="F26">
         <v>87.592200000000005</v>
@@ -932,7 +932,7 @@
         <v>7.91</v>
       </c>
       <c r="E27">
-        <v>75.109300000000005</v>
+        <v>68.966800000000006</v>
       </c>
       <c r="F27">
         <v>88.221400000000003</v>
@@ -952,7 +952,7 @@
         <v>7.23</v>
       </c>
       <c r="E28">
-        <v>77.122299999999996</v>
+        <v>70.536100000000005</v>
       </c>
       <c r="F28">
         <v>89.654899999999998</v>
@@ -972,7 +972,7 @@
         <v>5.76</v>
       </c>
       <c r="E29">
-        <v>80.830200000000005</v>
+        <v>74.858199999999997</v>
       </c>
       <c r="F29">
         <v>88.822400000000002</v>
@@ -992,7 +992,7 @@
         <v>6.61</v>
       </c>
       <c r="E30">
-        <v>82.069900000000004</v>
+        <v>74.712900000000005</v>
       </c>
       <c r="F30">
         <v>89.288600000000002</v>
@@ -1012,7 +1012,7 @@
         <v>7.3</v>
       </c>
       <c r="E31">
-        <v>79.721299999999999</v>
+        <v>72.863399999999999</v>
       </c>
       <c r="F31">
         <v>92.912099999999995</v>
@@ -1032,7 +1032,7 @@
         <v>7.38</v>
       </c>
       <c r="E32">
-        <v>79.927199999999999</v>
+        <v>73.619600000000005</v>
       </c>
       <c r="F32">
         <v>88.411900000000003</v>
@@ -1052,7 +1052,7 @@
         <v>6.68</v>
       </c>
       <c r="E33">
-        <v>80.305800000000005</v>
+        <v>73.8917</v>
       </c>
       <c r="F33">
         <v>92.490399999999994</v>
@@ -1072,7 +1072,7 @@
         <v>7.34</v>
       </c>
       <c r="E34">
-        <v>78.380200000000002</v>
+        <v>73.956500000000005</v>
       </c>
       <c r="F34">
         <v>92.381200000000007</v>
@@ -1092,7 +1092,7 @@
         <v>7.66</v>
       </c>
       <c r="E35">
-        <v>81.607699999999994</v>
+        <v>74.950999999999993</v>
       </c>
       <c r="F35">
         <v>91.264799999999994</v>
@@ -1112,7 +1112,7 @@
         <v>7.3</v>
       </c>
       <c r="E36">
-        <v>80.095200000000006</v>
+        <v>73.359399999999994</v>
       </c>
       <c r="F36">
         <v>90.290099999999995</v>
@@ -1132,7 +1132,7 @@
         <v>6.88</v>
       </c>
       <c r="E37">
-        <v>80.490499999999997</v>
+        <v>73.873099999999994</v>
       </c>
       <c r="F37">
         <v>89.448300000000003</v>
@@ -1152,7 +1152,7 @@
         <v>8.27</v>
       </c>
       <c r="E38">
-        <v>79.272400000000005</v>
+        <v>72.570700000000002</v>
       </c>
       <c r="F38">
         <v>90.184100000000001</v>
@@ -1172,7 +1172,7 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="E39">
-        <v>77.1755</v>
+        <v>70.941100000000006</v>
       </c>
       <c r="F39">
         <v>91.100499999999997</v>
@@ -1192,7 +1192,7 @@
         <v>9.17</v>
       </c>
       <c r="E40">
-        <v>80.339799999999997</v>
+        <v>73.522099999999995</v>
       </c>
       <c r="F40">
         <v>91.765199999999993</v>
@@ -1212,7 +1212,7 @@
         <v>7.86</v>
       </c>
       <c r="E41">
-        <v>79.950900000000004</v>
+        <v>73.555999999999997</v>
       </c>
       <c r="F41">
         <v>89.229699999999994</v>
@@ -1232,7 +1232,7 @@
         <v>5.25</v>
       </c>
       <c r="E42">
-        <v>82.288399999999996</v>
+        <v>74.759699999999995</v>
       </c>
       <c r="F42">
         <v>89.7821</v>
@@ -1252,7 +1252,7 @@
         <v>5.2</v>
       </c>
       <c r="E43">
-        <v>81.443399999999997</v>
+        <v>74.308599999999998</v>
       </c>
       <c r="F43">
         <v>92.564800000000005</v>
@@ -1272,7 +1272,7 @@
         <v>4.57</v>
       </c>
       <c r="E44">
-        <v>80.935699999999997</v>
+        <v>74.207300000000004</v>
       </c>
       <c r="F44">
         <v>88.581000000000003</v>
@@ -1292,7 +1292,7 @@
         <v>4.45</v>
       </c>
       <c r="E45">
-        <v>79.419899999999998</v>
+        <v>72.618899999999996</v>
       </c>
       <c r="F45">
         <v>92.819000000000003</v>
@@ -1312,7 +1312,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="E46">
-        <v>79.188800000000001</v>
+        <v>74.302499999999995</v>
       </c>
       <c r="F46">
         <v>93.079400000000007</v>
@@ -1332,7 +1332,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="E47">
-        <v>81.879099999999994</v>
+        <v>74.775899999999993</v>
       </c>
       <c r="F47">
         <v>92.266400000000004</v>
@@ -1352,7 +1352,7 @@
         <v>4.99</v>
       </c>
       <c r="E48">
-        <v>80.634500000000003</v>
+        <v>72.965199999999996</v>
       </c>
       <c r="F48">
         <v>91.836600000000004</v>
@@ -1372,7 +1372,7 @@
         <v>6.06</v>
       </c>
       <c r="E49">
-        <v>83.330299999999994</v>
+        <v>76.158000000000001</v>
       </c>
       <c r="F49">
         <v>91.329899999999995</v>
@@ -1392,7 +1392,7 @@
         <v>4.95</v>
       </c>
       <c r="E50">
-        <v>80.930099999999996</v>
+        <v>73.609899999999996</v>
       </c>
       <c r="F50">
         <v>91.203100000000006</v>
@@ -1412,7 +1412,7 @@
         <v>5.57</v>
       </c>
       <c r="E51">
-        <v>79.193899999999999</v>
+        <v>72.557000000000002</v>
       </c>
       <c r="F51">
         <v>92.89</v>
@@ -1432,7 +1432,7 @@
         <v>6.28</v>
       </c>
       <c r="E52">
-        <v>84.927899999999994</v>
+        <v>77.761099999999999</v>
       </c>
       <c r="F52">
         <v>93.224800000000002</v>
@@ -1452,7 +1452,7 @@
         <v>5.98</v>
       </c>
       <c r="E53">
-        <v>82.936199999999999</v>
+        <v>76.015000000000001</v>
       </c>
       <c r="F53">
         <v>91.565100000000001</v>
@@ -1472,7 +1472,7 @@
         <v>6.59</v>
       </c>
       <c r="E54">
-        <v>85.239099999999993</v>
+        <v>76.995099999999994</v>
       </c>
       <c r="F54">
         <v>92.959000000000003</v>
@@ -1492,7 +1492,7 @@
         <v>6.57</v>
       </c>
       <c r="E55">
-        <v>85.620900000000006</v>
+        <v>77.968999999999994</v>
       </c>
       <c r="F55">
         <v>95.101600000000005</v>
@@ -1512,7 +1512,7 @@
         <v>6.81</v>
       </c>
       <c r="E56">
-        <v>82.940200000000004</v>
+        <v>75.763300000000001</v>
       </c>
       <c r="F56">
         <v>92.085700000000003</v>
@@ -1532,7 +1532,7 @@
         <v>7.21</v>
       </c>
       <c r="E57">
-        <v>83.132400000000004</v>
+        <v>75.863</v>
       </c>
       <c r="F57">
         <v>95.575599999999994</v>
@@ -1552,7 +1552,7 @@
         <v>7.36</v>
       </c>
       <c r="E58">
-        <v>82.197500000000005</v>
+        <v>76.749899999999997</v>
       </c>
       <c r="F58">
         <v>94.986900000000006</v>
@@ -1572,7 +1572,7 @@
         <v>7.76</v>
       </c>
       <c r="E59">
-        <v>84.3626</v>
+        <v>76.542400000000001</v>
       </c>
       <c r="F59">
         <v>95.244200000000006</v>
@@ -1592,7 +1592,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E60">
-        <v>85.941500000000005</v>
+        <v>77.597300000000004</v>
       </c>
       <c r="F60">
         <v>94.252899999999997</v>
@@ -1612,7 +1612,7 @@
         <v>8.5</v>
       </c>
       <c r="E61">
-        <v>86.230500000000006</v>
+        <v>78.613900000000001</v>
       </c>
       <c r="F61">
         <v>94.595799999999997</v>
@@ -1632,7 +1632,7 @@
         <v>8.6</v>
       </c>
       <c r="E62">
-        <v>82.258399999999995</v>
+        <v>74.599299999999999</v>
       </c>
       <c r="F62">
         <v>94.857799999999997</v>
@@ -1652,7 +1652,7 @@
         <v>9.15</v>
       </c>
       <c r="E63">
-        <v>80.899500000000003</v>
+        <v>73.878799999999998</v>
       </c>
       <c r="F63">
         <v>95.993799999999993</v>
@@ -1672,7 +1672,7 @@
         <v>9.41</v>
       </c>
       <c r="E64">
-        <v>83.626400000000004</v>
+        <v>76.063400000000001</v>
       </c>
       <c r="F64">
         <v>96.454999999999998</v>
@@ -1692,7 +1692,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="E65">
-        <v>86.593699999999998</v>
+        <v>79.215599999999995</v>
       </c>
       <c r="F65">
         <v>95.793099999999995</v>
@@ -1712,7 +1712,7 @@
         <v>9.75</v>
       </c>
       <c r="E66">
-        <v>87.888900000000007</v>
+        <v>79.088099999999997</v>
       </c>
       <c r="F66">
         <v>96.059600000000003</v>
@@ -1732,7 +1732,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="E67">
-        <v>86.352099999999993</v>
+        <v>78.087900000000005</v>
       </c>
       <c r="F67">
         <v>99.398700000000005</v>
@@ -1752,7 +1752,7 @@
         <v>9.61</v>
       </c>
       <c r="E68">
-        <v>83.784199999999998</v>
+        <v>76.108199999999997</v>
       </c>
       <c r="F68">
         <v>95.733099999999993</v>
@@ -1772,7 +1772,7 @@
         <v>9.6</v>
       </c>
       <c r="E69">
-        <v>86.431200000000004</v>
+        <v>78.495800000000003</v>
       </c>
       <c r="F69">
         <v>99.223799999999997</v>
@@ -1792,7 +1792,7 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="E70">
-        <v>84.642499999999998</v>
+        <v>79.097499999999997</v>
       </c>
       <c r="F70">
         <v>96.848200000000006</v>
@@ -1812,7 +1812,7 @@
         <v>8.91</v>
       </c>
       <c r="E71">
-        <v>86.853099999999998</v>
+        <v>78.968500000000006</v>
       </c>
       <c r="F71">
         <v>97.024000000000001</v>
@@ -1832,7 +1832,7 @@
         <v>8.7100000000000009</v>
       </c>
       <c r="E72">
-        <v>88.657300000000006</v>
+        <v>80.250900000000001</v>
       </c>
       <c r="F72">
         <v>96.749200000000002</v>
@@ -1852,7 +1852,7 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="E73">
-        <v>89.1511</v>
+        <v>81.090699999999998</v>
       </c>
       <c r="F73">
         <v>97.126499999999993</v>
@@ -1872,7 +1872,7 @@
         <v>7.88</v>
       </c>
       <c r="E74">
-        <v>87.045599999999993</v>
+        <v>79.264499999999998</v>
       </c>
       <c r="F74">
         <v>96.5899</v>
@@ -1892,7 +1892,7 @@
         <v>7.61</v>
       </c>
       <c r="E75">
-        <v>84.082999999999998</v>
+        <v>76.8065</v>
       </c>
       <c r="F75">
         <v>97.320599999999999</v>
@@ -1912,7 +1912,7 @@
         <v>7.37</v>
       </c>
       <c r="E76">
-        <v>89.540099999999995</v>
+        <v>82.035399999999996</v>
       </c>
       <c r="F76">
         <v>98.610100000000003</v>
@@ -1932,7 +1932,7 @@
         <v>7.17</v>
       </c>
       <c r="E77">
-        <v>87.102500000000006</v>
+        <v>79.666899999999998</v>
       </c>
       <c r="F77">
         <v>96.783799999999999</v>
@@ -1952,7 +1952,7 @@
         <v>7.02</v>
       </c>
       <c r="E78">
-        <v>93.139399999999995</v>
+        <v>84.411000000000001</v>
       </c>
       <c r="F78">
         <v>98.127200000000002</v>
@@ -1972,7 +1972,7 @@
         <v>7.02</v>
       </c>
       <c r="E79">
-        <v>91.368600000000001</v>
+        <v>83.279700000000005</v>
       </c>
       <c r="F79">
         <v>101.5223</v>
@@ -1992,7 +1992,7 @@
         <v>7.03</v>
       </c>
       <c r="E80">
-        <v>88.358900000000006</v>
+        <v>80.641099999999994</v>
       </c>
       <c r="F80">
         <v>98.475099999999998</v>
@@ -2012,7 +2012,7 @@
         <v>7.03</v>
       </c>
       <c r="E81">
-        <v>90.246200000000002</v>
+        <v>82.410600000000002</v>
       </c>
       <c r="F81">
         <v>101.8604</v>
@@ -2032,7 +2032,7 @@
         <v>7.06</v>
       </c>
       <c r="E82">
-        <v>87.869100000000003</v>
+        <v>82.162599999999998</v>
       </c>
       <c r="F82">
         <v>100.8608</v>
@@ -2052,7 +2052,7 @@
         <v>7.05</v>
       </c>
       <c r="E83">
-        <v>91.597499999999997</v>
+        <v>83.526399999999995</v>
       </c>
       <c r="F83">
         <v>99.674000000000007</v>
@@ -2072,7 +2072,7 @@
         <v>7.04</v>
       </c>
       <c r="E84">
-        <v>91.145200000000003</v>
+        <v>82.727400000000003</v>
       </c>
       <c r="F84">
         <v>98.453699999999998</v>
@@ -2092,7 +2092,7 @@
         <v>7.04</v>
       </c>
       <c r="E85">
-        <v>90.861400000000003</v>
+        <v>82.525499999999994</v>
       </c>
       <c r="F85">
         <v>99.421700000000001</v>
@@ -2112,7 +2112,7 @@
         <v>7.04</v>
       </c>
       <c r="E86">
-        <v>88.777299999999997</v>
+        <v>80.898399999999995</v>
       </c>
       <c r="F86">
         <v>98.346800000000002</v>
@@ -2132,7 +2132,7 @@
         <v>7.04</v>
       </c>
       <c r="E87">
-        <v>85.768299999999996</v>
+        <v>78.349400000000003</v>
       </c>
       <c r="F87">
         <v>99.851299999999995</v>
@@ -2152,7 +2152,7 @@
         <v>7.04</v>
       </c>
       <c r="E88">
-        <v>91.4221</v>
+        <v>83.830399999999997</v>
       </c>
       <c r="F88">
         <v>100.95610000000001</v>
@@ -2172,7 +2172,7 @@
         <v>7.01</v>
       </c>
       <c r="E89">
-        <v>89.320599999999999</v>
+        <v>81.968000000000004</v>
       </c>
       <c r="F89">
         <v>100.0886</v>
@@ -2192,7 +2192,7 @@
         <v>7.24</v>
       </c>
       <c r="E90">
-        <v>94.322400000000002</v>
+        <v>85.634100000000004</v>
       </c>
       <c r="F90">
         <v>101.0222</v>
@@ -2212,7 +2212,7 @@
         <v>7.2</v>
       </c>
       <c r="E91">
-        <v>93.534599999999998</v>
+        <v>84.987899999999996</v>
       </c>
       <c r="F91">
         <v>104.0433</v>
@@ -2232,7 +2232,7 @@
         <v>7.19</v>
       </c>
       <c r="E92">
-        <v>91.411000000000001</v>
+        <v>83.281499999999994</v>
       </c>
       <c r="F92">
         <v>100.8053</v>
@@ -2252,7 +2252,7 @@
         <v>7.2</v>
       </c>
       <c r="E93">
-        <v>92.217299999999994</v>
+        <v>84.275899999999993</v>
       </c>
       <c r="F93">
         <v>104.1172</v>
@@ -2272,7 +2272,7 @@
         <v>7.21</v>
       </c>
       <c r="E94">
-        <v>89.475200000000001</v>
+        <v>83.266900000000007</v>
       </c>
       <c r="F94">
         <v>103.6148</v>
@@ -2292,7 +2292,7 @@
         <v>7.2</v>
       </c>
       <c r="E95">
-        <v>95.28</v>
+        <v>86.593900000000005</v>
       </c>
       <c r="F95">
         <v>101.99760000000001</v>
@@ -2312,7 +2312,7 @@
         <v>7.44</v>
       </c>
       <c r="E96">
-        <v>93.809200000000004</v>
+        <v>84.7851</v>
       </c>
       <c r="F96">
         <v>101.52719999999999</v>
@@ -2332,7 +2332,7 @@
         <v>7.44</v>
       </c>
       <c r="E97">
-        <v>92.4572</v>
+        <v>83.550899999999999</v>
       </c>
       <c r="F97">
         <v>101.5502</v>
@@ -2352,7 +2352,7 @@
         <v>7.42</v>
       </c>
       <c r="E98">
-        <v>90.954400000000007</v>
+        <v>82.477599999999995</v>
       </c>
       <c r="F98">
         <v>100.92400000000001</v>
@@ -2372,7 +2372,7 @@
         <v>7.43</v>
       </c>
       <c r="E99">
-        <v>88.9893</v>
+        <v>81.216800000000006</v>
       </c>
       <c r="F99">
         <v>100.6857</v>
@@ -2392,7 +2392,7 @@
         <v>7.43</v>
       </c>
       <c r="E100">
-        <v>89.053299999999993</v>
+        <v>80.733199999999997</v>
       </c>
       <c r="F100">
         <v>100.9586</v>
@@ -2412,7 +2412,7 @@
         <v>7.44</v>
       </c>
       <c r="E101">
-        <v>94.715299999999999</v>
+        <v>86.804199999999994</v>
       </c>
       <c r="F101">
         <v>99.661000000000001</v>
@@ -2432,7 +2432,7 @@
         <v>7.44</v>
       </c>
       <c r="E102">
-        <v>94.8643</v>
+        <v>85.475399999999993</v>
       </c>
       <c r="F102">
         <v>99.347399999999993</v>
@@ -2452,7 +2452,7 @@
         <v>7.56</v>
       </c>
       <c r="E103">
-        <v>94.4559</v>
+        <v>85.477199999999996</v>
       </c>
       <c r="F103">
         <v>102.01739999999999</v>
@@ -2472,7 +2472,7 @@
         <v>7.93</v>
       </c>
       <c r="E104">
-        <v>94.159300000000002</v>
+        <v>85.631</v>
       </c>
       <c r="F104">
         <v>99.3429</v>
@@ -2492,7 +2492,7 @@
         <v>8.18</v>
       </c>
       <c r="E105">
-        <v>91.493099999999998</v>
+        <v>83.082499999999996</v>
       </c>
       <c r="F105">
         <v>100.0472</v>
@@ -2512,7 +2512,7 @@
         <v>8.17</v>
       </c>
       <c r="E106">
-        <v>90.576499999999996</v>
+        <v>84.120400000000004</v>
       </c>
       <c r="F106">
         <v>94.975499999999997</v>
@@ -2532,7 +2532,7 @@
         <v>7.74</v>
       </c>
       <c r="E107">
-        <v>95.506799999999998</v>
+        <v>86.631600000000006</v>
       </c>
       <c r="F107">
         <v>94.6721</v>
@@ -2552,7 +2552,7 @@
         <v>7.43</v>
       </c>
       <c r="E108">
-        <v>92.042699999999996</v>
+        <v>82.903899999999993</v>
       </c>
       <c r="F108">
         <v>92.649900000000002</v>
@@ -2572,7 +2572,7 @@
         <v>8.02</v>
       </c>
       <c r="E109">
-        <v>91.895099999999999</v>
+        <v>83.155600000000007</v>
       </c>
       <c r="F109">
         <v>90.568299999999994</v>
@@ -2592,7 +2592,7 @@
         <v>7.59</v>
       </c>
       <c r="E110">
-        <v>84.895899999999997</v>
+        <v>76.019199999999998</v>
       </c>
       <c r="F110">
         <v>88.023799999999994</v>
@@ -2612,7 +2612,7 @@
         <v>7.12</v>
       </c>
       <c r="E111">
-        <v>81.840999999999994</v>
+        <v>73.650400000000005</v>
       </c>
       <c r="F111">
         <v>87.284499999999994</v>
@@ -2632,7 +2632,7 @@
         <v>7.03</v>
       </c>
       <c r="E112">
-        <v>86.873599999999996</v>
+        <v>78.418300000000002</v>
       </c>
       <c r="F112">
         <v>86.343999999999994</v>
@@ -2652,7 +2652,7 @@
         <v>6.05</v>
       </c>
       <c r="E113">
-        <v>84.310699999999997</v>
+        <v>76.256600000000006</v>
       </c>
       <c r="F113">
         <v>84.0124</v>
@@ -2672,7 +2672,7 @@
         <v>5.29</v>
       </c>
       <c r="E114">
-        <v>86.081599999999995</v>
+        <v>76.8035</v>
       </c>
       <c r="F114">
         <v>84.202299999999994</v>
@@ -2692,7 +2692,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="E115">
-        <v>88.184299999999993</v>
+        <v>79.089799999999997</v>
       </c>
       <c r="F115">
         <v>86.3857</v>
@@ -2712,7 +2712,7 @@
         <v>4.59</v>
       </c>
       <c r="E116">
-        <v>88.731700000000004</v>
+        <v>80.180999999999997</v>
       </c>
       <c r="F116">
         <v>85.814899999999994</v>
@@ -2732,7 +2732,7 @@
         <v>4.49</v>
       </c>
       <c r="E117">
-        <v>86.553600000000003</v>
+        <v>78.071600000000004</v>
       </c>
       <c r="F117">
         <v>88.813299999999998</v>
@@ -2752,7 +2752,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="E118">
-        <v>86.503699999999995</v>
+        <v>80.063999999999993</v>
       </c>
       <c r="F118">
         <v>88.047899999999998</v>
@@ -2772,7 +2772,7 @@
         <v>4.51</v>
       </c>
       <c r="E119">
-        <v>91.120500000000007</v>
+        <v>82.344700000000003</v>
       </c>
       <c r="F119">
         <v>87.633600000000001</v>
@@ -2792,7 +2792,7 @@
         <v>4.51</v>
       </c>
       <c r="E120">
-        <v>91.248999999999995</v>
+        <v>82.196600000000004</v>
       </c>
       <c r="F120">
         <v>87.311499999999995</v>
@@ -2812,7 +2812,7 @@
         <v>4.5</v>
       </c>
       <c r="E121">
-        <v>91.856200000000001</v>
+        <v>83.292100000000005</v>
       </c>
       <c r="F121">
         <v>88.066199999999995</v>
@@ -2832,7 +2832,7 @@
         <v>4.49</v>
       </c>
       <c r="E122">
-        <v>86.867000000000004</v>
+        <v>77.818299999999994</v>
       </c>
       <c r="F122">
         <v>88.953400000000002</v>
@@ -2852,7 +2852,7 @@
         <v>4.49</v>
       </c>
       <c r="E123">
-        <v>85.227199999999996</v>
+        <v>77.042699999999996</v>
       </c>
       <c r="F123">
         <v>89.013800000000003</v>
@@ -2872,7 +2872,7 @@
         <v>4.45</v>
       </c>
       <c r="E124">
-        <v>92.292199999999994</v>
+        <v>83.848500000000001</v>
       </c>
       <c r="F124">
         <v>90.090500000000006</v>
@@ -2892,7 +2892,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="E125">
-        <v>90.581800000000001</v>
+        <v>82.218599999999995</v>
       </c>
       <c r="F125">
         <v>89.123500000000007</v>
@@ -2912,7 +2912,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="E126">
-        <v>92.3</v>
+        <v>82.732500000000002</v>
       </c>
       <c r="F126">
         <v>90.885599999999997</v>
@@ -2932,7 +2932,7 @@
         <v>4.59</v>
       </c>
       <c r="E127">
-        <v>93.230999999999995</v>
+        <v>84.097300000000004</v>
       </c>
       <c r="F127">
         <v>93.661199999999994</v>
@@ -2952,7 +2952,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E128">
-        <v>92.328599999999994</v>
+        <v>83.780500000000004</v>
       </c>
       <c r="F128">
         <v>92.079300000000003</v>
@@ -2972,7 +2972,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="E129">
-        <v>91.562200000000004</v>
+        <v>82.859899999999996</v>
       </c>
       <c r="F129">
         <v>94.673299999999998</v>
@@ -2992,7 +2992,7 @@
         <v>4.43</v>
       </c>
       <c r="E130">
-        <v>90.5565</v>
+        <v>83.530900000000003</v>
       </c>
       <c r="F130">
         <v>93.575999999999993</v>
@@ -3012,7 +3012,7 @@
         <v>4.03</v>
       </c>
       <c r="E131">
-        <v>93.845299999999995</v>
+        <v>84.515699999999995</v>
       </c>
       <c r="F131">
         <v>92.632000000000005</v>
@@ -3032,7 +3032,7 @@
         <v>3.97</v>
       </c>
       <c r="E132">
-        <v>95.969300000000004</v>
+        <v>86.267200000000003</v>
       </c>
       <c r="F132">
         <v>91.747600000000006</v>
@@ -3052,7 +3052,7 @@
         <v>4.3</v>
       </c>
       <c r="E133">
-        <v>95.596199999999996</v>
+        <v>86.360100000000003</v>
       </c>
       <c r="F133">
         <v>93.147499999999994</v>
@@ -3072,7 +3072,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="E134">
-        <v>90.205600000000004</v>
+        <v>81.060199999999995</v>
       </c>
       <c r="F134">
         <v>93.059200000000004</v>
@@ -3092,7 +3092,7 @@
         <v>4.04</v>
       </c>
       <c r="E135">
-        <v>88.569000000000003</v>
+        <v>80.116200000000006</v>
       </c>
       <c r="F135">
         <v>92.282799999999995</v>
@@ -3112,7 +3112,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="E136">
-        <v>95.829300000000003</v>
+        <v>87.174199999999999</v>
       </c>
       <c r="F136">
         <v>93.916700000000006</v>
@@ -3132,7 +3132,7 @@
         <v>4.28</v>
       </c>
       <c r="E137">
-        <v>91.600200000000001</v>
+        <v>82.957300000000004</v>
       </c>
       <c r="F137">
         <v>92.114500000000007</v>
@@ -3152,7 +3152,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="E138">
-        <v>95.946299999999994</v>
+        <v>86.038600000000002</v>
       </c>
       <c r="F138">
         <v>92.833200000000005</v>
@@ -3172,7 +3172,7 @@
         <v>4.37</v>
       </c>
       <c r="E139">
-        <v>96.488600000000005</v>
+        <v>86.875100000000003</v>
       </c>
       <c r="F139">
         <v>95.629599999999996</v>
@@ -3192,7 +3192,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="E140">
-        <v>95.218000000000004</v>
+        <v>86.130700000000004</v>
       </c>
       <c r="F140">
         <v>94.5946</v>
@@ -3212,7 +3212,7 @@
         <v>4.05</v>
       </c>
       <c r="E141">
-        <v>96.539000000000001</v>
+        <v>87.289599999999993</v>
       </c>
       <c r="F141">
         <v>97.0261</v>
@@ -3232,7 +3232,7 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="E142">
-        <v>94.102000000000004</v>
+        <v>86.729200000000006</v>
       </c>
       <c r="F142">
         <v>95.972300000000004</v>
@@ -3252,7 +3252,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="E143">
-        <v>97.437600000000003</v>
+        <v>87.546800000000005</v>
       </c>
       <c r="F143">
         <v>95.739400000000003</v>
@@ -3272,7 +3272,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="E144">
-        <v>101.08280000000001</v>
+        <v>90.786199999999994</v>
       </c>
       <c r="F144">
         <v>95.095500000000001</v>
@@ -3292,7 +3292,7 @@
         <v>4.34</v>
       </c>
       <c r="E145">
-        <v>98.814800000000005</v>
+        <v>89.206699999999998</v>
       </c>
       <c r="F145">
         <v>95.9803</v>
@@ -3312,7 +3312,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="E146">
-        <v>94.674999999999997</v>
+        <v>85.357200000000006</v>
       </c>
       <c r="F146">
         <v>96.385900000000007</v>
@@ -3332,7 +3332,7 @@
         <v>4.32</v>
       </c>
       <c r="E147">
-        <v>94.079400000000007</v>
+        <v>85.296199999999999</v>
       </c>
       <c r="F147">
         <v>96.604900000000001</v>
@@ -3352,7 +3352,7 @@
         <v>4.24</v>
       </c>
       <c r="E148">
-        <v>99.091399999999993</v>
+        <v>90.119799999999998</v>
       </c>
       <c r="F148">
         <v>96.686800000000005</v>
@@ -3372,7 +3372,7 @@
         <v>4.29</v>
       </c>
       <c r="E149">
-        <v>95.479200000000006</v>
+        <v>86.670699999999997</v>
       </c>
       <c r="F149">
         <v>95.834199999999996</v>
@@ -3392,7 +3392,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="E150">
-        <v>100.3147</v>
+        <v>90.125900000000001</v>
       </c>
       <c r="F150">
         <v>96.617900000000006</v>
@@ -3412,7 +3412,7 @@
         <v>4.34</v>
       </c>
       <c r="E151">
-        <v>99.685199999999995</v>
+        <v>89.788399999999996</v>
       </c>
       <c r="F151">
         <v>99.074700000000007</v>
@@ -3432,7 +3432,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="E152">
-        <v>99.310299999999998</v>
+        <v>89.915199999999999</v>
       </c>
       <c r="F152">
         <v>97.629300000000001</v>
@@ -3452,7 +3452,7 @@
         <v>4.13</v>
       </c>
       <c r="E153">
-        <v>99.098699999999994</v>
+        <v>89.448599999999999</v>
       </c>
       <c r="F153">
         <v>99.261899999999997</v>
@@ -3472,7 +3472,7 @@
         <v>4.17</v>
       </c>
       <c r="E154">
-        <v>95.188900000000004</v>
+        <v>87.314300000000003</v>
       </c>
       <c r="F154">
         <v>98.239099999999993</v>
@@ -3492,7 +3492,7 @@
         <v>4.21</v>
       </c>
       <c r="E155">
-        <v>101.8593</v>
+        <v>91.364599999999996</v>
       </c>
       <c r="F155">
         <v>97.374499999999998</v>
@@ -3512,7 +3512,7 @@
         <v>4.29</v>
       </c>
       <c r="E156">
-        <v>104.38720000000001</v>
+        <v>93.410799999999995</v>
       </c>
       <c r="F156">
         <v>97.307900000000004</v>
@@ -3532,7 +3532,7 @@
         <v>4.05</v>
       </c>
       <c r="E157">
-        <v>100.53189999999999</v>
+        <v>90.418400000000005</v>
       </c>
       <c r="F157">
         <v>97.787000000000006</v>
@@ -3552,7 +3552,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="E158">
-        <v>97.967399999999998</v>
+        <v>87.662099999999995</v>
       </c>
       <c r="F158">
         <v>97.8947</v>
@@ -3572,7 +3572,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="E159">
-        <v>94.671800000000005</v>
+        <v>85.139200000000002</v>
       </c>
       <c r="F159">
         <v>98.182299999999998</v>
@@ -3592,7 +3592,7 @@
         <v>3.98</v>
       </c>
       <c r="E160">
-        <v>97.067300000000003</v>
+        <v>87.349000000000004</v>
       </c>
       <c r="F160">
         <v>98.829800000000006</v>
@@ -3612,7 +3612,7 @@
         <v>3.82</v>
       </c>
       <c r="E161">
-        <v>99.919899999999998</v>
+        <v>90.458100000000002</v>
       </c>
       <c r="F161">
         <v>97.870800000000003</v>
@@ -3632,7 +3632,7 @@
         <v>3.72</v>
       </c>
       <c r="E162">
-        <v>102.2805</v>
+        <v>91.668999999999997</v>
       </c>
       <c r="F162">
         <v>98.0839</v>
@@ -3652,7 +3652,7 @@
         <v>3.78</v>
       </c>
       <c r="E163">
-        <v>99.522499999999994</v>
+        <v>89.262299999999996</v>
       </c>
       <c r="F163">
         <v>100.7332</v>
@@ -3672,7 +3672,7 @@
         <v>3.85</v>
       </c>
       <c r="E164">
-        <v>100.8104</v>
+        <v>91.106999999999999</v>
       </c>
       <c r="F164">
         <v>98.882599999999996</v>
@@ -3692,7 +3692,7 @@
         <v>3.84</v>
       </c>
       <c r="E165">
-        <v>100.2732</v>
+        <v>90.191400000000002</v>
       </c>
       <c r="F165">
         <v>101.5421</v>
@@ -3712,7 +3712,7 @@
         <v>3.64</v>
       </c>
       <c r="E166">
-        <v>96.805899999999994</v>
+        <v>88.218500000000006</v>
       </c>
       <c r="F166">
         <v>100.9465</v>
@@ -3732,7 +3732,7 @@
         <v>3.39</v>
       </c>
       <c r="E167">
-        <v>103.6678</v>
+        <v>92.824600000000004</v>
       </c>
       <c r="F167">
         <v>99.794399999999996</v>
@@ -3752,7 +3752,7 @@
         <v>3.39</v>
       </c>
       <c r="E168">
-        <v>104.2283</v>
+        <v>93.048100000000005</v>
       </c>
       <c r="F168">
         <v>99.539599999999993</v>
@@ -3772,7 +3772,7 @@
         <v>3.29</v>
       </c>
       <c r="E169">
-        <v>102.785</v>
+        <v>92.094700000000003</v>
       </c>
       <c r="F169">
         <v>99.793099999999995</v>
@@ -3792,7 +3792,7 @@
         <v>3.14</v>
       </c>
       <c r="E170">
-        <v>98.6922</v>
+        <v>88.054900000000004</v>
       </c>
       <c r="F170">
         <v>99.7376</v>
@@ -3812,7 +3812,7 @@
         <v>3.16</v>
       </c>
       <c r="E171">
-        <v>96.926599999999993</v>
+        <v>86.924000000000007</v>
       </c>
       <c r="F171">
         <v>100.35720000000001</v>
@@ -3832,7 +3832,7 @@
         <v>3.17</v>
       </c>
       <c r="E172">
-        <v>101.1074</v>
+        <v>91.512200000000007</v>
       </c>
       <c r="F172">
         <v>101.8167</v>
@@ -3852,7 +3852,7 @@
         <v>3.23</v>
       </c>
       <c r="E173">
-        <v>100.3229</v>
+        <v>90.606499999999997</v>
       </c>
       <c r="F173">
         <v>100.37820000000001</v>
@@ -3872,7 +3872,7 @@
         <v>3.28</v>
       </c>
       <c r="E174">
-        <v>104.8978</v>
+        <v>93.7714</v>
       </c>
       <c r="F174">
         <v>101.2526</v>
@@ -3892,7 +3892,7 @@
         <v>3.02</v>
       </c>
       <c r="E175">
-        <v>102.80759999999999</v>
+        <v>92.240600000000001</v>
       </c>
       <c r="F175">
         <v>104.11579999999999</v>
@@ -3912,7 +3912,7 @@
         <v>2.83</v>
       </c>
       <c r="E176">
-        <v>104.0395</v>
+        <v>94.150899999999993</v>
       </c>
       <c r="F176">
         <v>102.3896</v>
@@ -3932,7 +3932,7 @@
         <v>2.77</v>
       </c>
       <c r="E177">
-        <v>101.7495</v>
+        <v>91.269400000000005</v>
       </c>
       <c r="F177">
         <v>104.8155</v>
@@ -3952,7 +3952,7 @@
         <v>2.83</v>
       </c>
       <c r="E178">
-        <v>100.0043</v>
+        <v>91.305300000000003</v>
       </c>
       <c r="F178">
         <v>103.9419</v>
@@ -3972,7 +3972,7 @@
         <v>2.9</v>
       </c>
       <c r="E179">
-        <v>106.89449999999999</v>
+        <v>95.619600000000005</v>
       </c>
       <c r="F179">
         <v>102.8638</v>
@@ -3992,7 +3992,7 @@
         <v>2.85</v>
       </c>
       <c r="E180">
-        <v>106.4367</v>
+        <v>94.902299999999997</v>
       </c>
       <c r="F180">
         <v>103.0515</v>
@@ -4012,7 +4012,7 @@
         <v>2.81</v>
       </c>
       <c r="E181">
-        <v>107.0086</v>
+        <v>95.499399999999994</v>
       </c>
       <c r="F181">
         <v>102.94889999999999</v>
@@ -4032,7 +4032,7 @@
         <v>2.67</v>
       </c>
       <c r="E182">
-        <v>102.2984</v>
+        <v>90.619600000000005</v>
       </c>
       <c r="F182">
         <v>102.393</v>
@@ -4052,7 +4052,7 @@
         <v>2.81</v>
       </c>
       <c r="E183">
-        <v>99.923900000000003</v>
+        <v>89.268900000000002</v>
       </c>
       <c r="F183">
         <v>101.95480000000001</v>
@@ -4072,7 +4072,7 @@
         <v>3.04</v>
       </c>
       <c r="E184">
-        <v>104.7324</v>
+        <v>94.336200000000005</v>
       </c>
       <c r="F184">
         <v>101.9032</v>
@@ -4092,7 +4092,7 @@
         <v>2.97</v>
       </c>
       <c r="E185">
-        <v>103.6431</v>
+        <v>92.930400000000006</v>
       </c>
       <c r="F185">
         <v>99.626199999999997</v>
@@ -4112,7 +4112,7 @@
         <v>2.98</v>
       </c>
       <c r="E186">
-        <v>106.14879999999999</v>
+        <v>94.019300000000001</v>
       </c>
       <c r="F186">
         <v>99.8245</v>
@@ -4132,7 +4132,7 @@
         <v>2.96</v>
       </c>
       <c r="E187">
-        <v>107.0577</v>
+        <v>95.599000000000004</v>
       </c>
       <c r="F187">
         <v>102.24639999999999</v>
@@ -4152,7 +4152,7 @@
         <v>2.99</v>
       </c>
       <c r="E188">
-        <v>107.2808</v>
+        <v>96.244200000000006</v>
       </c>
       <c r="F188">
         <v>101.0468</v>
@@ -4172,7 +4172,7 @@
         <v>3.04</v>
       </c>
       <c r="E189">
-        <v>105.3815</v>
+        <v>93.906099999999995</v>
       </c>
       <c r="F189">
         <v>103.262</v>
@@ -4192,7 +4192,7 @@
         <v>3.1</v>
       </c>
       <c r="E190">
-        <v>104.87990000000001</v>
+        <v>95.486999999999995</v>
       </c>
       <c r="F190">
         <v>101.0421</v>
@@ -4212,7 +4212,7 @@
         <v>3.02</v>
       </c>
       <c r="E191">
-        <v>109.2778</v>
+        <v>97.288499999999999</v>
       </c>
       <c r="F191">
         <v>100.04989999999999</v>
@@ -4232,7 +4232,7 @@
         <v>3.02</v>
       </c>
       <c r="E192">
-        <v>108.8944</v>
+        <v>96.718000000000004</v>
       </c>
       <c r="F192">
         <v>98.732699999999994</v>
@@ -4252,7 +4252,7 @@
         <v>3.14</v>
       </c>
       <c r="E193">
-        <v>109.8702</v>
+        <v>97.505700000000004</v>
       </c>
       <c r="F193">
         <v>98.102599999999995</v>
@@ -4272,7 +4272,7 @@
         <v>3.08</v>
       </c>
       <c r="E194">
-        <v>104.5772</v>
+        <v>91.7303</v>
       </c>
       <c r="F194">
         <v>99.022599999999997</v>
@@ -4292,7 +4292,7 @@
         <v>3.36</v>
       </c>
       <c r="E195">
-        <v>104.855</v>
+        <v>92.720100000000002</v>
       </c>
       <c r="F195">
         <v>98.469700000000003</v>
@@ -4312,7 +4312,7 @@
         <v>3.8</v>
       </c>
       <c r="E196">
-        <v>105.99039999999999</v>
+        <v>94.120699999999999</v>
       </c>
       <c r="F196">
         <v>97.584599999999995</v>
@@ -4332,7 +4332,7 @@
         <v>3.74</v>
       </c>
       <c r="E197">
-        <v>107.34780000000001</v>
+        <v>95.744</v>
       </c>
       <c r="F197">
         <v>97.140600000000006</v>
@@ -4352,7 +4352,7 @@
         <v>3.81</v>
       </c>
       <c r="E198">
-        <v>109.1572</v>
+        <v>95.995699999999999</v>
       </c>
       <c r="F198">
         <v>97.054199999999994</v>
@@ -4372,7 +4372,7 @@
         <v>3.81</v>
       </c>
       <c r="E199">
-        <v>110.3785</v>
+        <v>97.379599999999996</v>
       </c>
       <c r="F199">
         <v>100.3595</v>
@@ -4392,7 +4392,7 @@
         <v>4.21</v>
       </c>
       <c r="E200">
-        <v>107.7753</v>
+        <v>95.391999999999996</v>
       </c>
       <c r="F200">
         <v>98.655299999999997</v>
@@ -4412,7 +4412,7 @@
         <v>4.24</v>
       </c>
       <c r="E201">
-        <v>109.1645</v>
+        <v>96.882400000000004</v>
       </c>
       <c r="F201">
         <v>100.8706</v>
@@ -4432,7 +4432,7 @@
         <v>4.28</v>
       </c>
       <c r="E202">
-        <v>106.306</v>
+        <v>95.740399999999994</v>
       </c>
       <c r="F202">
         <v>99.419700000000006</v>
@@ -4452,7 +4452,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="E203">
-        <v>110.9543</v>
+        <v>97.6691</v>
       </c>
       <c r="F203">
         <v>98.802899999999994</v>
@@ -4472,7 +4472,7 @@
         <v>5.15</v>
       </c>
       <c r="E204">
-        <v>114.05629999999999</v>
+        <v>100.8586</v>
       </c>
       <c r="F204">
         <v>97.723299999999995</v>
@@ -4492,7 +4492,7 @@
         <v>5.61</v>
       </c>
       <c r="E205">
-        <v>113.4928</v>
+        <v>99.799199999999999</v>
       </c>
       <c r="F205">
         <v>98.776600000000002</v>
@@ -4512,7 +4512,7 @@
         <v>5.83</v>
       </c>
       <c r="E206">
-        <v>108.6974</v>
+        <v>95.165499999999994</v>
       </c>
       <c r="F206">
         <v>98.708500000000001</v>
@@ -4532,7 +4532,7 @@
         <v>6.06</v>
       </c>
       <c r="E207">
-        <v>105.4796</v>
+        <v>93.3476</v>
       </c>
       <c r="F207">
         <v>98.215900000000005</v>
@@ -4552,7 +4552,7 @@
         <v>6.32</v>
       </c>
       <c r="E208">
-        <v>111.9705</v>
+        <v>99.904499999999999</v>
       </c>
       <c r="F208">
         <v>99.284899999999993</v>
@@ -4572,7 +4572,7 @@
         <v>6.5</v>
       </c>
       <c r="E209">
-        <v>106.4962</v>
+        <v>94.269400000000005</v>
       </c>
       <c r="F209">
         <v>97.661799999999999</v>
@@ -4592,7 +4592,7 @@
         <v>6.56</v>
       </c>
       <c r="E210">
-        <v>112.8887</v>
+        <v>99.176699999999997</v>
       </c>
       <c r="F210">
         <v>98.878600000000006</v>
@@ -4612,7 +4612,7 @@
         <v>6.82</v>
       </c>
       <c r="E211">
-        <v>113.1549</v>
+        <v>99.908299999999997</v>
       </c>
       <c r="F211">
         <v>101.81440000000001</v>
@@ -4632,7 +4632,7 @@
         <v>6.99</v>
       </c>
       <c r="E212">
-        <v>109.12869999999999</v>
+        <v>96.521900000000002</v>
       </c>
       <c r="F212">
         <v>100.2313</v>
@@ -4652,7 +4652,7 @@
         <v>6.94</v>
       </c>
       <c r="E213">
-        <v>111.9799</v>
+        <v>99.228999999999999</v>
       </c>
       <c r="F213">
         <v>101.6489</v>
@@ -4672,7 +4672,7 @@
         <v>6.99</v>
       </c>
       <c r="E214">
-        <v>106.68219999999999</v>
+        <v>95.748400000000004</v>
       </c>
       <c r="F214">
         <v>100.24420000000001</v>
@@ -4692,7 +4692,7 @@
         <v>7.03</v>
       </c>
       <c r="E215">
-        <v>112.7003</v>
+        <v>99.435299999999998</v>
       </c>
       <c r="F215">
         <v>100.90730000000001</v>
@@ -4712,7 +4712,7 @@
         <v>7.02</v>
       </c>
       <c r="E216">
-        <v>115.9299</v>
+        <v>102.76609999999999</v>
       </c>
       <c r="F216">
         <v>100.76220000000001</v>
@@ -4732,7 +4732,7 @@
         <v>7.17</v>
       </c>
       <c r="E217">
-        <v>114.7748</v>
+        <v>100.771</v>
       </c>
       <c r="F217">
         <v>101.6421</v>
@@ -4752,7 +4752,7 @@
         <v>7.25</v>
       </c>
       <c r="E218">
-        <v>110.85680000000001</v>
+        <v>97.338099999999997</v>
       </c>
       <c r="F218">
         <v>101.6219</v>
@@ -4772,7 +4772,7 @@
         <v>7.4</v>
       </c>
       <c r="E219">
-        <v>107.81359999999999</v>
+        <v>95.246399999999994</v>
       </c>
       <c r="F219">
         <v>101.6808</v>
@@ -4792,7 +4792,7 @@
         <v>7.47</v>
       </c>
       <c r="E220">
-        <v>111.1747</v>
+        <v>98.904700000000005</v>
       </c>
       <c r="F220">
         <v>102.4873</v>
@@ -4812,7 +4812,7 @@
         <v>7.46</v>
       </c>
       <c r="E221">
-        <v>111.2518</v>
+        <v>98.845600000000005</v>
       </c>
       <c r="F221">
         <v>101.9079</v>
@@ -4832,7 +4832,7 @@
         <v>7.51</v>
       </c>
       <c r="E222">
-        <v>115.3959</v>
+        <v>101.9545</v>
       </c>
       <c r="F222">
         <v>101.32250000000001</v>
@@ -4852,7 +4852,7 @@
         <v>7.64</v>
       </c>
       <c r="E223">
-        <v>114.4606</v>
+        <v>101.20269999999999</v>
       </c>
       <c r="F223">
         <v>104.6121</v>
@@ -4872,7 +4872,7 @@
         <v>7.73</v>
       </c>
       <c r="E224">
-        <v>112.86539999999999</v>
+        <v>100.1254</v>
       </c>
       <c r="F224">
         <v>103.4498</v>
@@ -4892,7 +4892,7 @@
         <v>7.73</v>
       </c>
       <c r="E225">
-        <v>113.9739</v>
+        <v>101.61150000000001</v>
       </c>
       <c r="F225">
         <v>106.134</v>
@@ -4912,7 +4912,7 @@
         <v>7.69</v>
       </c>
       <c r="E226">
-        <v>108.83759999999999</v>
+        <v>98.034899999999993</v>
       </c>
       <c r="F226">
         <v>104.61490000000001</v>
@@ -4932,7 +4932,7 @@
         <v>7.69</v>
       </c>
       <c r="E227">
-        <v>115.95010000000001</v>
+        <v>102.4204</v>
       </c>
       <c r="F227">
         <v>103.51090000000001</v>
@@ -4952,7 +4952,7 @@
         <v>7.83</v>
       </c>
       <c r="E228">
-        <v>118.0373</v>
+        <v>104.13160000000001</v>
       </c>
       <c r="F228">
         <v>103.22799999999999</v>
@@ -4972,7 +4972,7 @@
         <v>8.02</v>
       </c>
       <c r="E229">
-        <v>114.80249999999999</v>
+        <v>100.18429999999999</v>
       </c>
       <c r="F229">
         <v>103.601</v>
@@ -4992,7 +4992,7 @@
         <v>7.95</v>
       </c>
       <c r="E230">
-        <v>112.1386</v>
+        <v>98.530100000000004</v>
       </c>
       <c r="F230">
         <v>103.1944</v>
@@ -5012,7 +5012,7 @@
         <v>7.93</v>
       </c>
       <c r="E231">
-        <v>108.85590000000001</v>
+        <v>95.900199999999998</v>
       </c>
       <c r="F231">
         <v>102.7222</v>
@@ -5032,7 +5032,7 @@
         <v>8.02</v>
       </c>
       <c r="E232">
-        <v>112.64919999999999</v>
+        <v>100.1349</v>
       </c>
       <c r="F232">
         <v>103.07210000000001</v>
@@ -5052,7 +5052,7 @@
         <v>7.78</v>
       </c>
       <c r="E233">
-        <v>109.6429</v>
+        <v>97.671599999999998</v>
       </c>
       <c r="F233">
         <v>100.6968</v>
@@ -5072,7 +5072,7 @@
         <v>8.07</v>
       </c>
       <c r="E234">
-        <v>114.9636</v>
+        <v>101.771</v>
       </c>
       <c r="F234">
         <v>101.2748</v>
@@ -5092,7 +5092,7 @@
         <v>8.25</v>
       </c>
       <c r="E235">
-        <v>113.40179999999999</v>
+        <v>100.105</v>
       </c>
       <c r="F235">
         <v>103.9879</v>
@@ -5112,7 +5112,7 @@
         <v>8.14</v>
       </c>
       <c r="E236">
-        <v>113.2383</v>
+        <v>100.5522</v>
       </c>
       <c r="F236">
         <v>102.1311</v>
@@ -5132,7 +5132,7 @@
         <v>8.01</v>
       </c>
       <c r="E237">
-        <v>113.3</v>
+        <v>100.2734</v>
       </c>
       <c r="F237">
         <v>104.9676</v>
@@ -5152,7 +5152,7 @@
         <v>7.72</v>
       </c>
       <c r="E238">
-        <v>108.9</v>
+        <v>97.757800000000003</v>
       </c>
       <c r="F238">
         <v>103.0381</v>
@@ -5172,7 +5172,7 @@
         <v>7.66</v>
       </c>
       <c r="E239">
-        <v>115.4</v>
+        <v>100.614</v>
       </c>
       <c r="F239">
         <v>101.4331</v>
@@ -5192,7 +5192,7 @@
         <v>7.47</v>
       </c>
       <c r="E240">
-        <v>116.2</v>
+        <v>102.9224</v>
       </c>
       <c r="F240">
         <v>101.5782</v>
@@ -5212,7 +5212,7 @@
         <v>7.12</v>
       </c>
       <c r="E241">
-        <v>113.3</v>
+        <v>100.30410000000001</v>
       </c>
       <c r="F241">
         <v>101.7663</v>
@@ -5232,7 +5232,7 @@
         <v>7.12</v>
       </c>
       <c r="E242">
-        <v>111.9</v>
+        <v>98.278000000000006</v>
       </c>
       <c r="F242">
         <v>101.2873</v>
@@ -5252,7 +5252,7 @@
         <v>6.96</v>
       </c>
       <c r="E243">
-        <v>108.3</v>
+        <v>95.355699999999999</v>
       </c>
       <c r="F243">
         <v>102.0064</v>
@@ -5272,7 +5272,7 @@
         <v>6.81</v>
       </c>
       <c r="E244">
-        <v>109.8</v>
+        <v>96.859300000000005</v>
       </c>
       <c r="F244">
         <v>98.091899999999995</v>
@@ -5292,7 +5292,7 @@
         <v>6.09</v>
       </c>
       <c r="E245">
-        <v>87.9</v>
+        <v>75.906599999999997</v>
       </c>
       <c r="F245">
         <v>82.900700000000001</v>
@@ -5312,7 +5312,7 @@
         <v>5.47</v>
       </c>
       <c r="E246">
-        <v>89.3</v>
+        <v>76.6738</v>
       </c>
       <c r="F246">
         <v>85.237700000000004</v>
@@ -5332,7 +5332,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="E247">
-        <v>97.8</v>
+        <v>86.349000000000004</v>
       </c>
       <c r="F247">
         <v>93.0916</v>
@@ -5352,7 +5352,7 @@
         <v>4.82</v>
       </c>
       <c r="E248">
-        <v>102</v>
+        <v>90.499099999999999</v>
       </c>
       <c r="F248">
         <v>95.294200000000004</v>
@@ -5372,7 +5372,7 @@
         <v>4.49</v>
       </c>
       <c r="E249">
-        <v>102.7</v>
+        <v>91.323599999999999</v>
       </c>
       <c r="F249">
         <v>98.305499999999995</v>
@@ -5392,7 +5392,7 @@
         <v>4.38</v>
       </c>
       <c r="E250">
-        <v>102.9</v>
+        <v>92.727999999999994</v>
       </c>
       <c r="F250">
         <v>95.907200000000003</v>
@@ -5412,7 +5412,7 @@
         <v>4.2</v>
       </c>
       <c r="E251">
-        <v>109.2</v>
+        <v>96.089299999999994</v>
       </c>
       <c r="F251">
         <v>96.667599999999993</v>
@@ -5432,7 +5432,7 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="E252">
-        <v>111.2</v>
+        <v>98.738200000000006</v>
       </c>
       <c r="F252">
         <v>96.502099999999999</v>
@@ -5452,7 +5452,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="E253">
-        <v>110.1</v>
+        <v>98.2376</v>
       </c>
       <c r="F253">
         <v>98.148300000000006</v>
@@ -5472,7 +5472,7 @@
         <v>4.22</v>
       </c>
       <c r="E254">
-        <v>105.37</v>
+        <v>92.664599999999993</v>
       </c>
       <c r="F254">
         <v>99.551699999999997</v>
@@ -5492,7 +5492,7 @@
         <v>4.12</v>
       </c>
       <c r="E255">
-        <v>102.67</v>
+        <v>90.427800000000005</v>
       </c>
       <c r="F255">
         <v>96.685900000000004</v>
@@ -5512,7 +5512,7 @@
         <v>4.05</v>
       </c>
       <c r="E256">
-        <v>111.52</v>
+        <v>99.224199999999996</v>
       </c>
       <c r="F256">
         <v>99.246499999999997</v>
@@ -5532,7 +5532,7 @@
         <v>4.07</v>
       </c>
       <c r="E257">
-        <v>108.08</v>
+        <v>95.545000000000002</v>
       </c>
       <c r="F257">
         <v>97.556700000000006</v>
@@ -5552,7 +5552,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="E258">
-        <v>112.06</v>
+        <v>97.795699999999997</v>
       </c>
       <c r="F258">
         <v>98.607900000000001</v>
@@ -5572,7 +5572,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="E259">
-        <v>111.19</v>
+        <v>97.948599999999999</v>
       </c>
       <c r="F259">
         <v>101.3634</v>
@@ -5592,7 +5592,7 @@
         <v>4.32</v>
       </c>
       <c r="E260">
-        <v>109.89</v>
+        <v>96.884399999999999</v>
       </c>
       <c r="F260">
         <v>100.7714</v>
@@ -5612,7 +5612,7 @@
         <v>4.46</v>
       </c>
       <c r="E261">
-        <v>107.25</v>
+        <v>95.486800000000002</v>
       </c>
       <c r="F261">
         <v>102.5341</v>
@@ -5632,7 +5632,7 @@
         <v>4.55</v>
       </c>
       <c r="E262">
-        <v>104.27</v>
+        <v>93.558999999999997</v>
       </c>
       <c r="F262">
         <v>99.536600000000007</v>
@@ -5652,7 +5652,7 @@
         <v>4.84</v>
       </c>
       <c r="E263">
-        <v>108.49</v>
+        <v>95.724599999999995</v>
       </c>
       <c r="F263">
         <v>101.0112</v>
@@ -5672,7 +5672,7 @@
         <v>5.05</v>
       </c>
       <c r="E264">
-        <v>112.97</v>
+        <v>100.7697</v>
       </c>
       <c r="F264">
         <v>101.5134</v>
@@ -5692,7 +5692,7 @@
         <v>5.29</v>
       </c>
       <c r="E265">
-        <v>112.33</v>
+        <v>100.2131</v>
       </c>
       <c r="F265">
         <v>101.6054</v>
@@ -5712,7 +5712,7 @@
         <v>5.53</v>
       </c>
       <c r="E266">
-        <v>107.32</v>
+        <v>94.642700000000005</v>
       </c>
       <c r="F266">
         <v>102.782</v>
@@ -5732,7 +5732,7 @@
         <v>5.87</v>
       </c>
       <c r="E267">
-        <v>105.26</v>
+        <v>93.952299999999994</v>
       </c>
       <c r="F267">
         <v>103.4034</v>
@@ -5752,7 +5752,7 @@
         <v>6.31</v>
       </c>
       <c r="E268">
-        <v>111.97</v>
+        <v>101.3022</v>
       </c>
       <c r="F268">
         <v>104.1409</v>
@@ -5772,7 +5772,7 @@
         <v>6.56</v>
       </c>
       <c r="E269">
-        <v>109.56</v>
+        <v>98.26</v>
       </c>
       <c r="F269">
         <v>102.0836</v>
@@ -5792,10 +5792,10 @@
         <v>6.91</v>
       </c>
       <c r="E270">
-        <v>114.47</v>
+        <v>101.7214</v>
       </c>
       <c r="F270">
-        <v>102.9795</v>
+        <v>102.7769</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -5812,10 +5812,250 @@
         <v>7.31</v>
       </c>
       <c r="E271">
-        <v>112.92</v>
+        <v>100.4196</v>
       </c>
       <c r="F271">
-        <v>105.2676</v>
+        <v>102.6863</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B272">
+        <v>122.94799999999999</v>
+      </c>
+      <c r="C272">
+        <v>20.546700000000001</v>
+      </c>
+      <c r="D272">
+        <v>7.76</v>
+      </c>
+      <c r="E272">
+        <v>99.604799999999997</v>
+      </c>
+      <c r="F272">
+        <v>103.1328</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B273">
+        <v>123.803</v>
+      </c>
+      <c r="C273">
+        <v>20.120899999999999</v>
+      </c>
+      <c r="D273">
+        <v>8.25</v>
+      </c>
+      <c r="E273">
+        <v>101.51479999999999</v>
+      </c>
+      <c r="F273">
+        <v>103.23439999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B274">
+        <v>124.571</v>
+      </c>
+      <c r="C274">
+        <v>20.074999999999999</v>
+      </c>
+      <c r="D274">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E274">
+        <v>99.146199999999993</v>
+      </c>
+      <c r="F274">
+        <v>103.5283</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B275">
+        <v>125.276</v>
+      </c>
+      <c r="C275">
+        <v>19.984500000000001</v>
+      </c>
+      <c r="D275">
+        <v>8.93</v>
+      </c>
+      <c r="E275">
+        <v>100.4205</v>
+      </c>
+      <c r="F275">
+        <v>103.4114</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B276">
+        <v>125.997</v>
+      </c>
+      <c r="C276">
+        <v>19.444900000000001</v>
+      </c>
+      <c r="D276">
+        <v>9.42</v>
+      </c>
+      <c r="E276">
+        <v>105.14879999999999</v>
+      </c>
+      <c r="F276">
+        <v>103.0707</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B277">
+        <v>126.47799999999999</v>
+      </c>
+      <c r="C277">
+        <v>19.593</v>
+      </c>
+      <c r="D277">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E277">
+        <v>103.479</v>
+      </c>
+      <c r="F277">
+        <v>101.48480000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B278">
+        <v>127.336</v>
+      </c>
+      <c r="C278">
+        <v>18.9863</v>
+      </c>
+      <c r="D278">
+        <v>10.61</v>
+      </c>
+      <c r="E278">
+        <v>99.320099999999996</v>
+      </c>
+      <c r="F278">
+        <v>102.5478</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B279">
+        <v>128.04599999999999</v>
+      </c>
+      <c r="C279">
+        <v>18.598600000000001</v>
+      </c>
+      <c r="D279">
+        <v>10.92</v>
+      </c>
+      <c r="E279">
+        <v>97.204300000000003</v>
+      </c>
+      <c r="F279">
+        <v>102.5671</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B280">
+        <v>128.38900000000001</v>
+      </c>
+      <c r="C280">
+        <v>18.3749</v>
+      </c>
+      <c r="D280">
+        <v>11.23</v>
+      </c>
+      <c r="E280">
+        <v>104.09569999999999</v>
+      </c>
+      <c r="F280">
+        <v>102.6426</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B281">
+        <v>128.363</v>
+      </c>
+      <c r="C281">
+        <v>18.0855</v>
+      </c>
+      <c r="D281">
+        <v>11.29</v>
+      </c>
+      <c r="E281">
+        <v>100.4905</v>
+      </c>
+      <c r="F281">
+        <v>103.12220000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B282">
+        <v>128.084</v>
+      </c>
+      <c r="C282">
+        <v>17.737300000000001</v>
+      </c>
+      <c r="D282">
+        <v>11.32</v>
+      </c>
+      <c r="E282">
+        <v>106.11320000000001</v>
+      </c>
+      <c r="F282">
+        <v>102.74209999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B283">
+        <v>128.214</v>
+      </c>
+      <c r="C283">
+        <v>17.241199999999999</v>
+      </c>
+      <c r="D283">
+        <v>11.16</v>
+      </c>
+      <c r="E283">
+        <v>104.5505</v>
+      </c>
+      <c r="F283">
+        <v>101.88249999999999</v>
       </c>
     </row>
   </sheetData>
